--- a/DATA_goal/Junction_Flooding_372.xlsx
+++ b/DATA_goal/Junction_Flooding_372.xlsx
@@ -454,14 +454,14 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -863,103 +863,103 @@
         <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.04</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.85</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>21.97</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>29.59</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.04</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.6</v>
+        <v>136.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.58</v>
+        <v>25.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.45</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.27</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.02</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.11</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_372.xlsx
+++ b/DATA_goal/Junction_Flooding_372.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.75694444445</v>
+        <v>45053.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.76388888889</v>
+        <v>45053.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>9.609</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>6.511</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.581</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>20.565</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>16.566</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>7.562</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>31.653</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>4.908</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>7.264</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>8.228999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>8.516</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>2.418</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>10.522</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>6.618</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.509</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.885</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>107.143</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>21.161</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>13.895</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>7.251</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.576</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>14.794</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>5.655</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>6.607</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>8.411</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>28.943</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.77083333334</v>
+        <v>45053.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.93</v>
+        <v>19.217</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.72</v>
+        <v>13.976</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>1.415</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.04</v>
+        <v>41.629</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.15</v>
+        <v>34.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.123</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.85</v>
+        <v>56.612</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.11</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.48</v>
+        <v>10.231</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.85</v>
+        <v>15.195</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.89</v>
+        <v>16.72</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.14</v>
+        <v>17.546</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.22</v>
+        <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.73</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.88</v>
+        <v>21.318</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.61</v>
+        <v>12.771</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>1.081</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.907</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.71</v>
+        <v>221.576</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.74</v>
+        <v>42.004</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.75</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.02</v>
+        <v>28.128</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.61</v>
+        <v>14.808</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>2.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>27.556</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.6</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.52</v>
+        <v>10.953</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.65</v>
+        <v>12.859</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.87</v>
+        <v>17.425</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.28</v>
+        <v>51.236</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.41</v>
+        <v>7.789</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.8</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.77777777778</v>
+        <v>45053.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.98</v>
+        <v>21.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.44</v>
+        <v>1.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.1</v>
+        <v>46.92</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.97</v>
+        <v>38.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.970000000000001</v>
+        <v>17.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.59</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.5</v>
+        <v>26.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.55</v>
+        <v>11.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.82</v>
+        <v>17.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.53</v>
+        <v>18.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.29</v>
+        <v>19.83</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.01</v>
+        <v>5.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.28</v>
+        <v>24.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.78</v>
+        <v>14.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.87</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>136.02</v>
+        <v>250.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.82</v>
+        <v>47.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.74</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.45</v>
+        <v>31.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.27</v>
+        <v>16.72</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.24</v>
+        <v>2.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.04</v>
+        <v>31.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.65</v>
+        <v>13.79</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.71</v>
+        <v>12.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.93</v>
+        <v>14.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.02</v>
+        <v>19.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.11</v>
+        <v>59.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.96</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.87</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.91</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.75</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.3</v>
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_372.xlsx
+++ b/DATA_goal/Junction_Flooding_372.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45053.50694444445</v>
+        <v>40750.75694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>20.178</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>13.652</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.068</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>42.752</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>34.691</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.879</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>51.007</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>24.432</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.251</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>15.607</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.868</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>17.597</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.069</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.79</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>22.094</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.41</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.498</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.451</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>232.996</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>43.923</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>14.575</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>29.082</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.996</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.13</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>25.159</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.874</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.654</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.651</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>17.331</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.457</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>45.214</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.105</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>18.222</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45053.51388888889</v>
+        <v>40750.76388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.609</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.511</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.581</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.565</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.566</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.562</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>31.653</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.635</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.908</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.264</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.228999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.516</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.418</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.519</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.522</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.618</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.509</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.885</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>107.143</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.161</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.941</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.895</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.251</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.576</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.794</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.131</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.655</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.607</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.411</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.266</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>28.943</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.678000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45053.52083333334</v>
+        <v>40750.77083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.217</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.976</v>
+        <v>0.719</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.415</v>
+        <v>0.078</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>41.629</v>
+        <v>2.039</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.07</v>
+        <v>2.149</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.123</v>
+        <v>1.568</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>56.612</v>
+        <v>1.846</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.269</v>
+        <v>1.111</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.231</v>
+        <v>0.476</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.195</v>
+        <v>0.847</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.72</v>
+        <v>0.89</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.546</v>
+        <v>1.137</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.83</v>
+        <v>0.223</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.038</v>
+        <v>0.734</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.318</v>
+        <v>0.876</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.771</v>
+        <v>0.612</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.081</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.907</v>
+        <v>0.118</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>221.576</v>
+        <v>4.715</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.004</v>
+        <v>1.739</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>13.881</v>
+        <v>0.747</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.128</v>
+        <v>1.023</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>14.808</v>
+        <v>0.606</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.38</v>
+        <v>0.116</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>27.556</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.261</v>
+        <v>0.597</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.953</v>
+        <v>0.518</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>12.859</v>
+        <v>0.649</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.425</v>
+        <v>0.873</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>51.236</v>
+        <v>1.281</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.789</v>
+        <v>0.408</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.354</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45053.52777777778</v>
+        <v>40750.77777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.62</v>
+        <v>11.985</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.9</v>
+        <v>9.025</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.437</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.92</v>
+        <v>26.096</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.5</v>
+        <v>21.967</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.01</v>
+        <v>9.968999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.90000000000001</v>
+        <v>29.586</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.18</v>
+        <v>14.496</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.6</v>
+        <v>6.552</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.22</v>
+        <v>9.816000000000001</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.85</v>
+        <v>10.531</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.83</v>
+        <v>11.286</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.43</v>
+        <v>3.013</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.92</v>
+        <v>9.384</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>24.06</v>
+        <v>13.278</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.27</v>
+        <v>7.777</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.043</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.445</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.2</v>
+        <v>136.021</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.32</v>
+        <v>25.82</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.62</v>
+        <v>8.742000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.8</v>
+        <v>17.449</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.72</v>
+        <v>9.273</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.53</v>
+        <v>1.245</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.93</v>
+        <v>15.038</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.79</v>
+        <v>7.648</v>
       </c>
       <c r="AB5" s="4" t="n">
+        <v>6.709</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>7.931</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>11.017</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>26.108</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>4.963</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>10.788</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40750.78471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>34.87</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>56.19</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>23.23</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>15.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>221.8</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>41.84</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="AA6" s="4" t="n">
         <v>12.25</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>19.71</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>59.81</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>19.52</v>
+      <c r="AB6" s="4" t="n">
+        <v>10.74</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>50.88</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>17.3</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_372.xlsx
+++ b/DATA_goal/Junction_Flooding_372.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,33 +444,33 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40750.75694444445</v>
+        <v>45053.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>20.178</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>13.652</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>4.068</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>42.752</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>34.691</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>15.879</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>51.007</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>24.432</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>10.251</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>15.607</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>16.868</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>17.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>5.069</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>15.79</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>22.094</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>13.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.498</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>2.451</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>232.996</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>43.923</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>14.575</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>29.082</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>14.996</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>3.13</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>25.159</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>12.874</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>11.654</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>13.651</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>17.331</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>3.457</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>45.214</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>8.105</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40750.76388888889</v>
+        <v>45053.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>9.609</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>6.511</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>1.581</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>20.565</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>16.566</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>7.562</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>31.653</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>4.908</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>7.264</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>8.228999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>8.516</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>2.418</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>10.522</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>6.618</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.509</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.885</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>107.143</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>21.161</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>13.895</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>7.251</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>1.576</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>14.794</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>5.655</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>6.607</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>8.411</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.266</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>28.943</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40750.77083333334</v>
+        <v>45053.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.9330000000000001</v>
+        <v>19.217</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.719</v>
+        <v>13.976</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.078</v>
+        <v>1.415</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.039</v>
+        <v>41.629</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.149</v>
+        <v>34.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.568</v>
+        <v>15.123</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.846</v>
+        <v>56.612</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.111</v>
+        <v>23.269</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.476</v>
+        <v>10.231</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.847</v>
+        <v>15.195</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.89</v>
+        <v>16.72</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.137</v>
+        <v>17.546</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.223</v>
+        <v>4.83</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.734</v>
+        <v>15.038</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.876</v>
+        <v>21.318</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.612</v>
+        <v>12.771</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>1.081</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.118</v>
+        <v>0.907</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.715</v>
+        <v>221.576</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.739</v>
+        <v>42.004</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.747</v>
+        <v>13.881</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.023</v>
+        <v>28.128</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.606</v>
+        <v>14.808</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.116</v>
+        <v>2.38</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.6919999999999999</v>
+        <v>27.556</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.597</v>
+        <v>12.261</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.518</v>
+        <v>10.953</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.649</v>
+        <v>12.859</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.873</v>
+        <v>17.425</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.281</v>
+        <v>51.236</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.408</v>
+        <v>7.789</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.795</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40750.77777777778</v>
+        <v>45053.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.985</v>
+        <v>21.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.025</v>
+        <v>15.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.437</v>
+        <v>1.28</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.096</v>
+        <v>46.92</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21.967</v>
+        <v>38.5</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.968999999999999</v>
+        <v>17.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>29.586</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.496</v>
+        <v>26.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.552</v>
+        <v>11.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.816000000000001</v>
+        <v>17.22</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.531</v>
+        <v>18.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.286</v>
+        <v>19.83</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.013</v>
+        <v>5.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.384</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.278</v>
+        <v>24.06</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.777</v>
+        <v>14.27</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.043</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.445</v>
+        <v>0.87</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>136.021</v>
+        <v>250.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.82</v>
+        <v>47.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.742000000000001</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.449</v>
+        <v>31.8</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.273</v>
+        <v>16.72</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.245</v>
+        <v>2.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.038</v>
+        <v>31.93</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.648</v>
+        <v>13.79</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.709</v>
+        <v>12.25</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.931</v>
+        <v>14.4</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.017</v>
+        <v>19.71</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.108</v>
+        <v>59.81</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.963</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.788</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40750.78471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.78</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.87</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.19</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.23</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.81</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.42</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.33</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.91</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.75</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>50.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.3</v>
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>
